--- a/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
+++ b/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
@@ -1,43 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigoarguelloserrano/WPI/Airlines-Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2DDAE0-0A94-2C44-8720-0FC8A756A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE5609-1487-8E48-80BD-E458C7F80023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="7240" windowWidth="28040" windowHeight="17440" xr2:uid="{B0CACAD1-8886-C740-9EC7-1D41F121AE05}"/>
+    <workbookView xWindow="1980" yWindow="3320" windowWidth="31500" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Agency airline travel reservation system to a Retail Customer airline reservation system</t>
+  </si>
+  <si>
+    <t>Front_End</t>
+  </si>
+  <si>
+    <t>Back_End</t>
+  </si>
+  <si>
+    <t>DB_Admin</t>
+  </si>
+  <si>
+    <t>1. Application must access the data information tru and API [plain text]</t>
+  </si>
+  <si>
+    <t>2. App must allow client to to reserve travel from the destination airport to an arrival airport using a series of connecting flights with a maximum of two stopovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The App must verify that each stopover has sufficient time (layover time) to allow a passenger to transition from the gate of the arrival flight to the gate of the next departing flight before the departing flights leaves. </t>
+  </si>
+  <si>
+    <t>4. The App must verufy that layover time is also sufficient length to allow the airline to transfer the passenger’s bags from one flight to the next</t>
+  </si>
+  <si>
+    <t>5. The Front-End App must display the departure time and arrival time of each leg in airport local time. The server specifies flight times in GMT (Greenwich Mean Time.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. The Front-End must allow the user has the ability to reserve flights to travel either one-way (from departure to destination), or reserve a round-trip flight (from departure to destination and back to original departure airport.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. The Front-End must allow the user reserves either first class seating or coach seating for travel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. The Front-End must verify The client software should properly behave in situations where requested seating is not available for all legs of the flight. </t>
+  </si>
+  <si>
+    <t>9. The Front-End must allow user to search for flights using departure date, arrival dates and respective time windows within each. The App will not offer flight choices with unreasonable layover times</t>
+  </si>
+  <si>
+    <t>10. The App must allow multiple users reserving fligths at same time.  To support concurrency, the server API will support locking of the database. When locked, only the client software which locked the database will be able to update the database. The database will prohibit changes when the database is not locked. Database locks, if not explicitly released, will be automatically released within a reasonable period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. The Front-end must display  flights sorted by price, departure time, arrival time or travel time. </t>
+  </si>
+  <si>
+    <t>Usability, to facilitate user selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. The Front-end must let the user confirm selection before the reservation is completed. </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,8 +113,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -161,26 +218,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -213,23 +253,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,24 +395,154 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45F3881-4701-6C4F-A8A0-CDD2D3DD3246}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
+++ b/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
@@ -8,76 +8,179 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigoarguelloserrano/WPI/Airlines-Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE5609-1487-8E48-80BD-E458C7F80023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA17527F-6A3A-5448-A5DD-01CEA9A9C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="3320" windowWidth="31500" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="1100" windowWidth="32060" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Agency airline travel reservation system to a Retail Customer airline reservation system</t>
-  </si>
-  <si>
-    <t>Front_End</t>
-  </si>
-  <si>
-    <t>Back_End</t>
-  </si>
-  <si>
-    <t>DB_Admin</t>
-  </si>
-  <si>
-    <t>1. Application must access the data information tru and API [plain text]</t>
-  </si>
-  <si>
-    <t>2. App must allow client to to reserve travel from the destination airport to an arrival airport using a series of connecting flights with a maximum of two stopovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. The App must verify that each stopover has sufficient time (layover time) to allow a passenger to transition from the gate of the arrival flight to the gate of the next departing flight before the departing flights leaves. </t>
-  </si>
-  <si>
-    <t>4. The App must verufy that layover time is also sufficient length to allow the airline to transfer the passenger’s bags from one flight to the next</t>
-  </si>
-  <si>
-    <t>5. The Front-End App must display the departure time and arrival time of each leg in airport local time. The server specifies flight times in GMT (Greenwich Mean Time.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. The Front-End must allow the user has the ability to reserve flights to travel either one-way (from departure to destination), or reserve a round-trip flight (from departure to destination and back to original departure airport.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. The Front-End must allow the user reserves either first class seating or coach seating for travel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. The Front-End must verify The client software should properly behave in situations where requested seating is not available for all legs of the flight. </t>
-  </si>
-  <si>
-    <t>9. The Front-End must allow user to search for flights using departure date, arrival dates and respective time windows within each. The App will not offer flight choices with unreasonable layover times</t>
-  </si>
-  <si>
-    <t>10. The App must allow multiple users reserving fligths at same time.  To support concurrency, the server API will support locking of the database. When locked, only the client software which locked the database will be able to update the database. The database will prohibit changes when the database is not locked. Database locks, if not explicitly released, will be automatically released within a reasonable period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. The Front-end must display  flights sorted by price, departure time, arrival time or travel time. </t>
-  </si>
-  <si>
-    <t>Usability, to facilitate user selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. The Front-end must let the user confirm selection before the reservation is completed. </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t>A functional requirement is a  specification of a function that the system must support, whereas</t>
+  </si>
+  <si>
+    <t>1. The user must be able to  access tariff information.
+2. The user must be able to purchase tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nonfunctional requirement  is a constraint on the operation of the system that is not related directly to a function of the  system. 
+Other nonfunctional requirements may include using  specific hardware platform for the system, security requirements, how the system should deal  with failures and faults, and how to provide backward compatibility with an old system that the  client is unwilling to retire. </t>
+  </si>
+  <si>
+    <t>1. The user must be provided feedback in less  than one second
+2. The TicketDistributor must be written in Java.
+3. The TicketDistributor must be easy to use.
+4. The TicketDistributor must always be available.
+5. The TicketDistributor must provide a phone number to call when it fails.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agency airline travel reservation system to a Retail Customer airline reservation system: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirlineTravelReservation</t>
+    </r>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must be accessed by stadard HTTP GET API</t>
+  </si>
+  <si>
+    <t>Functional [F], Not Functional [NF]</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  AirlineTravelReservation must provide documentation for the APIs, including preconditions, post conditions, invariants and side effects </t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must provide  a Java subset of functionality similar to existing web-based airline reservation systems (Proof-Of-Concept)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Client Software: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirlineTravelReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Retail Customer or passanger: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow user to reserve travel from the destination airport to an arrival airport using a series of connecting flights with a maximum of two stopovers</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow user to reserve travel from the destination airport to an arrival airport with stepovers of sufficient time to allow users to transiton between gates.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow user to reserve travel from the destination airport to an arrival airport with stepovers of sufficient time to allow the airline to transfer the passenger’s bags from one flight to the next.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  User must be able to reserve flights to travel either one-way (from departure to destination), or reserve a round-trip flight </t>
+  </si>
+  <si>
+    <t>The  User must be able to reserve either first class seating or coach seating for travel.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must restrict situations where requested seating is not available for all legs of the flight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The User must be able to search for flights using departure date, arrival dates and respective time </t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must not offer flight choices with unreasonable layover times.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow multiple users running against the same database server</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must support concurrency by locking the server database and prohibiting changes duirng the user reservation session  and will be released within a reasonable period.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must not support any payment processing.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must should remain simple</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must have the ability to reserve seats (first class or coach) for each leg of flights</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must not store personal user information into the server</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must not allow a reservation to be deleted once it is made.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must display flights sorted by price, departure time, arrival time or travel time.</t>
+  </si>
+  <si>
+    <t>The  User must be able to select and save flights.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must confirm flithgs selection before saving the user reservation.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must be resposive on user actions.</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must suport testing and developing by having a finite number of flights and airports</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must display local time on selected leg airports.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,16 +195,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,21 +241,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,149 +571,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="69" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DA0E81-A05F-E443-8D3F-9191883BA3EF}">
+  <dimension ref="A2:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
+++ b/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigoarguelloserrano/WPI/Airlines-Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA17527F-6A3A-5448-A5DD-01CEA9A9C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DFF8A-1091-184F-91C9-2A587ACAF557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="1100" windowWidth="32060" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="6380" windowWidth="32060" windowHeight="23620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
+++ b/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
@@ -8,40 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigoarguelloserrano/WPI/Airlines-Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DFF8A-1091-184F-91C9-2A587ACAF557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493BF61-E06E-4E47-84DB-C03518FC272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="6380" windowWidth="32060" windowHeight="23620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17000" yWindow="5500" windowWidth="30140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Concepts" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$5:$B$31</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
-  <si>
-    <t>A functional requirement is a  specification of a function that the system must support, whereas</t>
-  </si>
-  <si>
-    <t>1. The user must be able to  access tariff information.
-2. The user must be able to purchase tickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nonfunctional requirement  is a constraint on the operation of the system that is not related directly to a function of the  system. 
-Other nonfunctional requirements may include using  specific hardware platform for the system, security requirements, how the system should deal  with failures and faults, and how to provide backward compatibility with an old system that the  client is unwilling to retire. </t>
-  </si>
-  <si>
-    <t>1. The user must be provided feedback in less  than one second
-2. The TicketDistributor must be written in Java.
-3. The TicketDistributor must be easy to use.
-4. The TicketDistributor must always be available.
-5. The TicketDistributor must provide a phone number to call when it fails.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Agency airline travel reservation system to a Retail Customer airline reservation system: </t>
     </r>
     <r>
@@ -57,22 +50,14 @@
     </r>
   </si>
   <si>
-    <t>The  AirlineTravelReservation must be accessed by stadard HTTP GET API</t>
-  </si>
-  <si>
-    <t>Functional [F], Not Functional [NF]</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The  AirlineTravelReservation must provide documentation for the APIs, including preconditions, post conditions, invariants and side effects </t>
-  </si>
-  <si>
-    <t>The  AirlineTravelReservation must provide  a Java subset of functionality similar to existing web-based airline reservation systems (Proof-Of-Concept)</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Client Software: </t>
     </r>
     <r>
@@ -110,13 +95,40 @@
     </r>
   </si>
   <si>
-    <t>The  AirlineTravelReservation must allow user to reserve travel from the destination airport to an arrival airport using a series of connecting flights with a maximum of two stopovers</t>
-  </si>
-  <si>
-    <t>The  AirlineTravelReservation must allow user to reserve travel from the destination airport to an arrival airport with stepovers of sufficient time to allow users to transiton between gates.</t>
-  </si>
-  <si>
-    <t>The  AirlineTravelReservation must allow user to reserve travel from the destination airport to an arrival airport with stepovers of sufficient time to allow the airline to transfer the passenger’s bags from one flight to the next.</t>
+    <t>Functional [F], Not Functional [NF]</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must be accessed by stadard HTTP GET API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  AirlineTravelReservation must provide documentation for the APIs, including preconditions, post conditions, invariants and side effects </t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must provide  a Java subset of functionality similar to existing web-based airline reservation systems (Proof-Of-Concept)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>The  User must be able to reserve travel from the destination airport to an arrival airport using a series of connecting.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow User to  reserve travel from the destination airport to an arrival airport using a series of connecting flights with a maximum of two stopovers</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow User to reserve travel from the destination airport to an arrival airport with stepovers of sufficient time to allow Users to transiton between gates.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow User to reserve travel from the destination airport to an arrival airport with stepovers of sufficient time to allow the airline to transfer the passenger’s bags from one flight to the next.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must allow User to reserve travel from the destination airport to an arrival airport using a series of connecting flights with a maximum of two stopovers</t>
   </si>
   <si>
     <t xml:space="preserve">The  User must be able to reserve flights to travel either one-way (from departure to destination), or reserve a round-trip flight </t>
@@ -134,10 +146,10 @@
     <t>The  AirlineTravelReservation must not offer flight choices with unreasonable layover times.</t>
   </si>
   <si>
-    <t>The  AirlineTravelReservation must allow multiple users running against the same database server</t>
-  </si>
-  <si>
-    <t>The  AirlineTravelReservation must support concurrency by locking the server database and prohibiting changes duirng the user reservation session  and will be released within a reasonable period.</t>
+    <t>The  AirlineTravelReservation must allow multiple Users running against the same database server</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must support concurrency by locking the server database and prohibiting changes duirng the User reservation session  and will be released within a reasonable period.</t>
   </si>
   <si>
     <t>The  AirlineTravelReservation must not support any payment processing.</t>
@@ -149,7 +161,7 @@
     <t>The  AirlineTravelReservation must have the ability to reserve seats (first class or coach) for each leg of flights</t>
   </si>
   <si>
-    <t>The  AirlineTravelReservation must not store personal user information into the server</t>
+    <t>The  AirlineTravelReservation must not store personal User information into the server</t>
   </si>
   <si>
     <t>The  AirlineTravelReservation must not allow a reservation to be deleted once it is made.</t>
@@ -158,22 +170,37 @@
     <t>The  AirlineTravelReservation must display flights sorted by price, departure time, arrival time or travel time.</t>
   </si>
   <si>
+    <t>The  AirlineTravelReservation must display local time on selected leg airports.</t>
+  </si>
+  <si>
     <t>The  User must be able to select and save flights.</t>
   </si>
   <si>
-    <t>The  AirlineTravelReservation must confirm flithgs selection before saving the user reservation.</t>
-  </si>
-  <si>
-    <t>The  AirlineTravelReservation must be resposive on user actions.</t>
-  </si>
-  <si>
-    <t>Requirement</t>
+    <t>The  AirlineTravelReservation must confirm flithgs selection before saving the User reservation.</t>
+  </si>
+  <si>
+    <t>The  AirlineTravelReservation must be resposive on User actions.</t>
   </si>
   <si>
     <t>The  AirlineTravelReservation must suport testing and developing by having a finite number of flights and airports</t>
   </si>
   <si>
-    <t>The  AirlineTravelReservation must display local time on selected leg airports.</t>
+    <t>A functional requirement is a  specification of a function that the system must support, whereas</t>
+  </si>
+  <si>
+    <t>1. The user must be able to  access tariff information.
+2. The user must be able to purchase tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nonfunctional requirement  is a constraint on the operation of the system that is not related directly to a function of the  system. 
+Other nonfunctional requirements may include using  specific hardware platform for the system, security requirements, how the system should deal  with failures and faults, and how to provide backward compatibility with an old system that the  client is unwilling to retire. </t>
+  </si>
+  <si>
+    <t>1. The user must be provided feedback in less  than one second
+2. The TicketDistributor must be written in Java.
+3. The TicketDistributor must be easy to use.
+4. The TicketDistributor must always be available.
+5. The TicketDistributor must provide a phone number to call when it fails.</t>
   </si>
 </sst>
 </file>
@@ -243,16 +270,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -260,41 +287,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,44 +597,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="76.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>30</v>
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
@@ -616,248 +643,383 @@
     </row>
     <row r="7" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10" t="s">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10" t="s">
+    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10" t="s">
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="1:2" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
+    <row r="15" spans="1:2" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10" t="s">
+    <row r="17" spans="1:2" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10" t="s">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10" t="s">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10" t="s">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10" t="s">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10" t="s">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10" t="s">
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:2" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:B31" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="NF"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DA0E81-A05F-E443-8D3F-9191883BA3EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75.1640625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="69.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
+++ b/Documents/WPI_Airlines_Booking_T1_Backlog.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigoarguelloserrano/WPI/Airlines-Project/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493BF61-E06E-4E47-84DB-C03518FC272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="5500" windowWidth="30140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="16460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Concepts" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$5:$B$31</definedName>
@@ -25,14 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Agency airline travel reservation system to a Retail Customer airline reservation system: </t>
@@ -43,7 +38,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>AirlineTravelReservation</t>
@@ -55,7 +50,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Client Software: </t>
@@ -66,7 +61,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>AirlineTravelReservation</t>
@@ -76,7 +71,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -88,7 +83,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>User</t>
@@ -202,12 +197,278 @@
 4. The TicketDistributor must always be available.
 5. The TicketDistributor must provide a phone number to call when it fails.</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>REQ-F1</t>
+  </si>
+  <si>
+    <t>The user must be able to reserve travel from the destination airport to an arrival airport using a series of connecting.</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>REQ-F2</t>
+  </si>
+  <si>
+    <t>The ATR system must allow the user to reserve travel from a departure airport to an arrival airport with stops of sufficient duration to allow the users to transition between gates.</t>
+  </si>
+  <si>
+    <t>REQ-F3</t>
+  </si>
+  <si>
+    <t>The user must be able to reserve flights to travel one-way (from departure to destination), or reserve a round-trip flight</t>
+  </si>
+  <si>
+    <t>REQ-F4</t>
+  </si>
+  <si>
+    <t>The user must be able to reserve seating of the following types:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Economy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Premium economy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Business</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>First Class</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-F5</t>
+  </si>
+  <si>
+    <t>The user must be able to search for flights using departure date and time as well as arrival date and time.</t>
+  </si>
+  <si>
+    <t>REQ-F6</t>
+  </si>
+  <si>
+    <t>The user must be able to select and save flights.</t>
+  </si>
+  <si>
+    <t>REQ-NF1</t>
+  </si>
+  <si>
+    <t>The ATR system must be accessed by standard HTTP GET API.</t>
+  </si>
+  <si>
+    <t>REQ-NF2</t>
+  </si>
+  <si>
+    <t>The ATR system must provide documentation for the APIs, including preconditions, post conditions, invariants, and side effects.</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>REQ-NF3</t>
+  </si>
+  <si>
+    <t>The ATR system must provide a Java subset of functionality similar to other existing web-based airline reservation systems (Proof-Of-Concept).</t>
+  </si>
+  <si>
+    <t>REQ-NF4</t>
+  </si>
+  <si>
+    <t>The ATR system must allow the user to reserve travel from a departure airport to an arrival airport using a series of connecting flights with no more than two (2) stops.</t>
+  </si>
+  <si>
+    <t>REQ-NF5</t>
+  </si>
+  <si>
+    <t>The ATR system must allow the user to reserve travel from a departure airport to an arrival airport with steps of sufficient time to allow the airline to transfer the traveler’s bags from one flight to the next.</t>
+  </si>
+  <si>
+    <t>REQ-NF6</t>
+  </si>
+  <si>
+    <t>The ATR system must restrict situations where requested seating is not available for all legs of the flight.</t>
+  </si>
+  <si>
+    <t>REQ-NF7</t>
+  </si>
+  <si>
+    <t>The ATR system must not offer flight choices with unreasonable layover times.</t>
+  </si>
+  <si>
+    <t>REQ-NF8</t>
+  </si>
+  <si>
+    <t>The ATR system must allow concurrent use by multiple users running against the same database server.</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>REQ-NF9</t>
+  </si>
+  <si>
+    <t>The ATR system must support concurrency by locking the server database, prohibiting changes during the user reservation session but will be released within a reasonable period.</t>
+  </si>
+  <si>
+    <t>REQ-NF10</t>
+  </si>
+  <si>
+    <t>The ATR system must not support any monetary transactions.</t>
+  </si>
+  <si>
+    <t>REQ-NF11</t>
+  </si>
+  <si>
+    <t>The ATR system must remain simple.</t>
+  </si>
+  <si>
+    <t>REQ-NF12</t>
+  </si>
+  <si>
+    <t>The ATR system must have the ability to reserve different seat types (i.e., economy, premium economy, business, and first class) for each leg of a flight.</t>
+  </si>
+  <si>
+    <t>REQ-NF13</t>
+  </si>
+  <si>
+    <t>The ATR system must not store any user personally identifiable information (PII) on the server.</t>
+  </si>
+  <si>
+    <t>REQ-NF14</t>
+  </si>
+  <si>
+    <t>The ATR system must not allow a reservation to be deleted once it is made.</t>
+  </si>
+  <si>
+    <t>REQ-NF15</t>
+  </si>
+  <si>
+    <t>The ATR system must display flights sorted by price, departure time, arrival time, and travel time.</t>
+  </si>
+  <si>
+    <t>REQ-NF16</t>
+  </si>
+  <si>
+    <t>All time values displayed by the ATR system must adjust to the user’s local time zone.</t>
+  </si>
+  <si>
+    <t>REQ-NF17</t>
+  </si>
+  <si>
+    <t>The ATR system must confirm flights selection before saving the user reservation.</t>
+  </si>
+  <si>
+    <t>REQ-NF18</t>
+  </si>
+  <si>
+    <t>The ATR system must be responsive to user actions.</t>
+  </si>
+  <si>
+    <t>REQ-NF19</t>
+  </si>
+  <si>
+    <t>The ATR system must support testing and developing by having a finite number of flights and airports.</t>
+  </si>
+  <si>
+    <t>REQ-NF21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,37 +477,206 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,15 +685,268 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -283,57 +966,376 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -591,435 +1593,791 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="76.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="76.1617647058823" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="16" customHeight="1" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" ht="34" customHeight="1" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:1">
+      <c r="A4" s="24"/>
+    </row>
+    <row r="5" ht="15.2" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="37" customHeight="1" spans="1:2">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" ht="30" spans="1:2">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" ht="30" hidden="1" spans="1:2">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" ht="30" spans="1:2">
+      <c r="A10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" ht="30" hidden="1" spans="1:2">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" ht="45" spans="1:2">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" ht="30" spans="1:2">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="14" ht="30" hidden="1" spans="1:2">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+    <row r="15" ht="15" hidden="1" spans="1:2">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" ht="30" spans="1:2">
+      <c r="A16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" ht="30" hidden="1" spans="1:2">
+      <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" ht="15" spans="1:2">
+      <c r="A18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" ht="30" spans="1:2">
+      <c r="A19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" ht="45" spans="1:2">
+      <c r="A20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" ht="15" spans="1:2">
+      <c r="A21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" ht="15" spans="1:2">
+      <c r="A22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+    <row r="23" ht="30" spans="1:2">
+      <c r="A23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" ht="15" spans="1:2">
+      <c r="A24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" ht="15" spans="1:2">
+      <c r="A25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" ht="30" spans="1:2">
+      <c r="A26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="27" ht="15" spans="1:2">
+      <c r="A27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+    <row r="28" ht="15" hidden="1" spans="1:2">
+      <c r="A28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="29" ht="15" spans="1:2">
+      <c r="A29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="30" ht="15" spans="1:2">
+      <c r="A30" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="31" ht="30" spans="1:2">
+      <c r="A31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="15" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B31" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A5:B31">
     <filterColumn colId="0">
-      <filters>
-        <filter val="NF"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="NF"/>
+      </customFilters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" customWidth="1"/>
+    <col min="1" max="1" width="75.1617647058823" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="45" spans="1:2">
+      <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="119" spans="1:2">
+      <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+    <row r="4" spans="1:1">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="20"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="20"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="20"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="20"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="20"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="20"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="20"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="20"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="20"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="15.2" spans="1:2">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="30" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="45" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" ht="30" spans="1:2">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="30" spans="1:2">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.2132352941176" customWidth="1"/>
+    <col min="2" max="2" width="46.5661764705882" customWidth="1"/>
+    <col min="3" max="3" width="29.8970588235294" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.55" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="28.75" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="28.75" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="16.75" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="16.75" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="16.75" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="16.75" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="28.75" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="15.55" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="15.55" spans="1:3">
+      <c r="A12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="56.75" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="28.75" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="28.75" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="28.75" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" ht="15.55" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="15.55" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" ht="42.75" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="28.75" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" ht="28.75" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" ht="28.75" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="28.75" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" ht="28.75" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="15.55" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" ht="28.75" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" ht="42.75" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="C5:C9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>